--- a/data/Pitrufquén.xlsx
+++ b/data/Pitrufquén.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pitrufquén.xlsx
+++ b/data/Pitrufquén.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
